--- a/data/trans_orig/P32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4606</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11573</v>
+        <v>12009</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01048441602790268</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002424353474004809</v>
+        <v>0.002417550378896656</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02634408300862118</v>
+        <v>0.02733619242409345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>4606</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1054</v>
+        <v>1077</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12161</v>
+        <v>11883</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007429935306393117</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001700761675358756</v>
+        <v>0.001736953586200595</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01961650821650672</v>
+        <v>0.01916779954624768</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>434713</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>427746</v>
+        <v>427310</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>438254</v>
+        <v>438257</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9895155839720973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9736559169913788</v>
+        <v>0.9726638075759063</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9975756465259952</v>
+        <v>0.9975824496211033</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -841,19 +841,19 @@
         <v>615319</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>607764</v>
+        <v>608042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>618871</v>
+        <v>618848</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9925700646936069</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9803834917834945</v>
+        <v>0.9808322004537525</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9982992383246412</v>
+        <v>0.9982630464137995</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>16564</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9811</v>
+        <v>9470</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25699</v>
+        <v>26147</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02846470416761364</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01686053497510027</v>
+        <v>0.01627389965625499</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04416335436235115</v>
+        <v>0.04493366502299023</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7531</v>
+        <v>7678</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007772214176814301</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02694278505877433</v>
+        <v>0.02747030735674143</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -987,19 +987,19 @@
         <v>18736</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10952</v>
+        <v>11118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29751</v>
+        <v>28089</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02175039211035996</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01271417492832791</v>
+        <v>0.01290663357436661</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03453723241799418</v>
+        <v>0.03260794477075113</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>565335</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>556200</v>
+        <v>555752</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>572088</v>
+        <v>572429</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9715352958323864</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9558366456376488</v>
+        <v>0.955066334977011</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9831394650248997</v>
+        <v>0.9837261003437451</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>261</v>
@@ -1037,7 +1037,7 @@
         <v>277339</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>271980</v>
+        <v>271833</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>279511</v>
@@ -1046,7 +1046,7 @@
         <v>0.9922277858231857</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9730572149412257</v>
+        <v>0.9725296926432586</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1058,19 +1058,19 @@
         <v>842673</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>831658</v>
+        <v>833320</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>850457</v>
+        <v>850291</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.97824960788964</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.965462767582006</v>
+        <v>0.9673920552292489</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9872858250716722</v>
+        <v>0.9870933664256337</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>14466</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8598</v>
+        <v>8492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24421</v>
+        <v>23439</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04369761632400621</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02597305860453634</v>
+        <v>0.02565337286174714</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07377008531913658</v>
+        <v>0.07080395563333866</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7523</v>
+        <v>5946</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01472556597375282</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05771416444789187</v>
+        <v>0.04561397390697493</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1204,19 +1204,19 @@
         <v>16385</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9585</v>
+        <v>9362</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26025</v>
+        <v>26073</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03551255739822076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0207740427798161</v>
+        <v>0.02029057076219232</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05640701180727297</v>
+        <v>0.05651018799411955</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>316571</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>306616</v>
+        <v>307598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>322439</v>
+        <v>322545</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9563023836759937</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9262299146808641</v>
+        <v>0.9291960443666615</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9740269413954639</v>
+        <v>0.9743466271382529</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -1254,7 +1254,7 @@
         <v>128430</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>122826</v>
+        <v>124403</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>130349</v>
@@ -1263,7 +1263,7 @@
         <v>0.9852744340262471</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9422858355521081</v>
+        <v>0.9543860260930249</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1275,19 +1275,19 @@
         <v>445001</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>435361</v>
+        <v>435313</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>451801</v>
+        <v>452024</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9644874426017792</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.943592988192727</v>
+        <v>0.9434898120058802</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9792259572201839</v>
+        <v>0.9797094292378073</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>15854</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8577</v>
+        <v>9494</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24709</v>
+        <v>26462</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02998991987477482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01622389432408326</v>
+        <v>0.01795905266002432</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0467390008596165</v>
+        <v>0.05005518399060387</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1400,19 +1400,19 @@
         <v>9147</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4369</v>
+        <v>4058</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17936</v>
+        <v>17025</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03007750152521558</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01436567408049654</v>
+        <v>0.01334490738354702</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05897726942213271</v>
+        <v>0.05598170704667031</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1421,19 +1421,19 @@
         <v>25001</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16136</v>
+        <v>16345</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37170</v>
+        <v>37152</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03002190366217528</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01937634058421606</v>
+        <v>0.01962711449280917</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04463482083881316</v>
+        <v>0.04461289510086675</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>512795</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>503940</v>
+        <v>502187</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>520072</v>
+        <v>519155</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9700100801252252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9532609991403844</v>
+        <v>0.9499448160093968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9837761056759167</v>
+        <v>0.9820409473399758</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>285</v>
@@ -1471,19 +1471,19 @@
         <v>294969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>286180</v>
+        <v>287091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>299747</v>
+        <v>300058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9699224984747844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9410227305778671</v>
+        <v>0.9440182929533296</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9856343259195035</v>
+        <v>0.986655092616453</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>825</v>
@@ -1492,19 +1492,19 @@
         <v>807764</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>795595</v>
+        <v>795613</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>816629</v>
+        <v>816420</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9699780963378247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9553651791611868</v>
+        <v>0.9553871048991336</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9806236594157839</v>
+        <v>0.980372885507191</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>51489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37771</v>
+        <v>38856</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65695</v>
+        <v>67536</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02737474208489276</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02008156014328001</v>
+        <v>0.02065811607596086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03492730951804354</v>
+        <v>0.03590607015298731</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1617,19 +1617,19 @@
         <v>13239</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6696</v>
+        <v>7131</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23076</v>
+        <v>23416</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01479901423863817</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007485294750925677</v>
+        <v>0.007970974446670739</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02579550541961917</v>
+        <v>0.02617531041399257</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -1638,19 +1638,19 @@
         <v>64728</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50776</v>
+        <v>48652</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83542</v>
+        <v>82676</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02332139241572334</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01829445641293876</v>
+        <v>0.0175290413648806</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03009977908229163</v>
+        <v>0.02978795583620871</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>1829415</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1815209</v>
+        <v>1813368</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1843133</v>
+        <v>1842048</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9726252579151072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9650726904819563</v>
+        <v>0.9640939298470127</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9799184398567196</v>
+        <v>0.9793418839240392</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>862</v>
@@ -1688,19 +1688,19 @@
         <v>881342</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>871505</v>
+        <v>871165</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>887885</v>
+        <v>887450</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9852009857613618</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9742044945803808</v>
+        <v>0.9738246895860075</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9925147052490745</v>
+        <v>0.9920290255533293</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2658</v>
@@ -1709,19 +1709,19 @@
         <v>2710758</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2691944</v>
+        <v>2692810</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2724710</v>
+        <v>2726834</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9766786075842767</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9699002209177086</v>
+        <v>0.9702120441637913</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9817055435870615</v>
+        <v>0.9824709586351192</v>
       </c>
     </row>
     <row r="18">
@@ -2053,19 +2053,19 @@
         <v>27906</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19464</v>
+        <v>19296</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40618</v>
+        <v>39019</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06531337754039029</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0455544396417334</v>
+        <v>0.04516030402706742</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09506482522616005</v>
+        <v>0.09132210527212413</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2077,16 +2077,16 @@
         <v>935</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7981</v>
+        <v>8641</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01647627158217063</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005327776499014764</v>
+        <v>0.005331549378555246</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04549976390632438</v>
+        <v>0.04926260160073655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -2095,19 +2095,19 @@
         <v>30796</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21944</v>
+        <v>20964</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43570</v>
+        <v>43713</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05109908360993723</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03641011079631607</v>
+        <v>0.03478528833347077</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0722942114751441</v>
+        <v>0.0725305304607516</v>
       </c>
     </row>
     <row r="5">
@@ -2124,19 +2124,19 @@
         <v>399361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>386649</v>
+        <v>388248</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>407803</v>
+        <v>407971</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9346866224596098</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9049351747738399</v>
+        <v>0.9086778947278759</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9544455603582666</v>
+        <v>0.9548396959729325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -2145,7 +2145,7 @@
         <v>172523</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>167432</v>
+        <v>166772</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>174478</v>
@@ -2154,10 +2154,10 @@
         <v>0.9835237284178294</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9545002360936756</v>
+        <v>0.950737398399268</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9946722235009853</v>
+        <v>0.9946684506214448</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>540</v>
@@ -2166,19 +2166,19 @@
         <v>571884</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>559110</v>
+        <v>558967</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>580736</v>
+        <v>581716</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9489009163900628</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.927705788524856</v>
+        <v>0.9274694695392487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9635898892036839</v>
+        <v>0.9652147116665293</v>
       </c>
     </row>
     <row r="6">
@@ -2270,19 +2270,19 @@
         <v>29241</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19816</v>
+        <v>19441</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42785</v>
+        <v>43142</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04936422782055351</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03345328751140027</v>
+        <v>0.03281960473561519</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07222814532652992</v>
+        <v>0.07283067174526497</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2294,16 +2294,16 @@
         <v>1067</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11726</v>
+        <v>12468</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01692041517244623</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003598503483023029</v>
+        <v>0.003599998483350486</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03955498715997578</v>
+        <v>0.04205485914135653</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -2312,19 +2312,19 @@
         <v>34258</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22448</v>
+        <v>22743</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48015</v>
+        <v>48204</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0385427692714946</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02525554973891904</v>
+        <v>0.02558764588510233</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05402163196639929</v>
+        <v>0.05423427006756851</v>
       </c>
     </row>
     <row r="8">
@@ -2341,19 +2341,19 @@
         <v>563116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>549572</v>
+        <v>549215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>572541</v>
+        <v>572916</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9506357721794465</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.92777185467347</v>
+        <v>0.927169328254735</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9665467124885997</v>
+        <v>0.9671803952643847</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>267</v>
@@ -2362,7 +2362,7 @@
         <v>291444</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>284734</v>
+        <v>283992</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>295393</v>
@@ -2371,10 +2371,10 @@
         <v>0.9830795848275538</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.960445012840024</v>
+        <v>0.9579451408586431</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.996401496516977</v>
+        <v>0.9964000015166495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>789</v>
@@ -2383,19 +2383,19 @@
         <v>854560</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>840803</v>
+        <v>840614</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>866370</v>
+        <v>866075</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9614572307285054</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9459783680336006</v>
+        <v>0.9457657299324314</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9747444502610809</v>
+        <v>0.9744123541148977</v>
       </c>
     </row>
     <row r="9">
@@ -2487,19 +2487,19 @@
         <v>38274</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27227</v>
+        <v>26219</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54817</v>
+        <v>52124</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08309362281373479</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05911002166710915</v>
+        <v>0.056921561973243</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1190086600188979</v>
+        <v>0.1131615136746645</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2508,19 +2508,19 @@
         <v>3979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9001</v>
+        <v>9218</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01915772350858222</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004779240870576939</v>
+        <v>0.004774492039581768</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04333629067128511</v>
+        <v>0.04437873150895101</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -2529,19 +2529,19 @@
         <v>42253</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30975</v>
+        <v>30192</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57845</v>
+        <v>57254</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06322326158984352</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04634790518562358</v>
+        <v>0.04517602706369637</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08655306135591331</v>
+        <v>0.08566910594152646</v>
       </c>
     </row>
     <row r="11">
@@ -2558,19 +2558,19 @@
         <v>422341</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>405798</v>
+        <v>408491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>433388</v>
+        <v>434396</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9169063771862652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.880991339981102</v>
+        <v>0.8868384863253356</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9408899783328908</v>
+        <v>0.9430784380267569</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>178</v>
@@ -2579,19 +2579,19 @@
         <v>203725</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>198703</v>
+        <v>198486</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>206711</v>
+        <v>206712</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9808422764914178</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9566637093287149</v>
+        <v>0.9556212684910492</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9952207591294231</v>
+        <v>0.9952255079604183</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>565</v>
@@ -2600,19 +2600,19 @@
         <v>626065</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>610473</v>
+        <v>611064</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>637343</v>
+        <v>638126</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9367767384101565</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9134469386440867</v>
+        <v>0.9143308940584735</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9536520948143764</v>
+        <v>0.9548239729363031</v>
       </c>
     </row>
     <row r="12">
@@ -2704,19 +2704,19 @@
         <v>42221</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29375</v>
+        <v>31149</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57372</v>
+        <v>56784</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07534281570980676</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05242035852859264</v>
+        <v>0.05558569717870434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1023809273470337</v>
+        <v>0.1013311303117949</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -2725,19 +2725,19 @@
         <v>10820</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5569</v>
+        <v>4892</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20096</v>
+        <v>20811</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02914759084932319</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01500163648805758</v>
+        <v>0.01317792397449393</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05413448831582325</v>
+        <v>0.05605837605607551</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -2746,19 +2746,19 @@
         <v>53041</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38890</v>
+        <v>39645</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69449</v>
+        <v>70214</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05693483023819872</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04174537367594888</v>
+        <v>0.04255492047964946</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07454686542277254</v>
+        <v>0.07536799289262647</v>
       </c>
     </row>
     <row r="14">
@@ -2775,19 +2775,19 @@
         <v>518160</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>503009</v>
+        <v>503597</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>531006</v>
+        <v>529232</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9246571842901933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8976190726529663</v>
+        <v>0.8986688696882055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9475796414714074</v>
+        <v>0.9444143028212957</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>340</v>
@@ -2796,19 +2796,19 @@
         <v>360411</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>351135</v>
+        <v>350420</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>365662</v>
+        <v>366339</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9708524091506768</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9458655116841767</v>
+        <v>0.9439416239439246</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9849983635119424</v>
+        <v>0.9868220760255061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>843</v>
@@ -2817,19 +2817,19 @@
         <v>878571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>862163</v>
+        <v>861398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>892722</v>
+        <v>891967</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9430651697618013</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.925453134577227</v>
+        <v>0.9246320071073736</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.958254626324051</v>
+        <v>0.9574450795203507</v>
       </c>
     </row>
     <row r="15">
@@ -2921,19 +2921,19 @@
         <v>137642</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>115342</v>
+        <v>115844</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>163239</v>
+        <v>162422</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06745123370676877</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05652300715525838</v>
+        <v>0.05676929274035208</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07999481895838999</v>
+        <v>0.07959436195251264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -2942,19 +2942,19 @@
         <v>22706</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14226</v>
+        <v>13992</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35388</v>
+        <v>34649</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02160813611628303</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01353804092816569</v>
+        <v>0.01331594068104769</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03367722755220391</v>
+        <v>0.03297407407012681</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>147</v>
@@ -2963,19 +2963,19 @@
         <v>160348</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134424</v>
+        <v>136379</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>188089</v>
+        <v>186957</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05186869192617114</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04348286815153993</v>
+        <v>0.04411528552267046</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06084198819087693</v>
+        <v>0.06047595843470529</v>
       </c>
     </row>
     <row r="17">
@@ -2992,19 +2992,19 @@
         <v>1902977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1877380</v>
+        <v>1878197</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1925277</v>
+        <v>1924775</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9325487662932312</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.92000518104161</v>
+        <v>0.9204056380474875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9434769928447416</v>
+        <v>0.943230707259648</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>945</v>
@@ -3013,19 +3013,19 @@
         <v>1028102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1015420</v>
+        <v>1016159</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1036582</v>
+        <v>1036816</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.978391863883717</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.966322772447796</v>
+        <v>0.9670259259298731</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9864619590718343</v>
+        <v>0.9866840593189524</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2737</v>
@@ -3034,19 +3034,19 @@
         <v>2931079</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2903338</v>
+        <v>2904470</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2957003</v>
+        <v>2955048</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9481313080738288</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9391580118091231</v>
+        <v>0.9395240415652952</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9565171318484602</v>
+        <v>0.9558847144773296</v>
       </c>
     </row>
     <row r="18">
@@ -3378,19 +3378,19 @@
         <v>14376</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8040</v>
+        <v>7836</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23631</v>
+        <v>22641</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03345289544765887</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01870934444773958</v>
+        <v>0.01823356439328372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05499062539929887</v>
+        <v>0.0526854464747346</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -3399,19 +3399,19 @@
         <v>4555</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1689</v>
+        <v>1779</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11004</v>
+        <v>10720</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02490711364801965</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009236966917016034</v>
+        <v>0.009725968425389355</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06017293729743577</v>
+        <v>0.05861957918424901</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -3420,19 +3420,19 @@
         <v>18931</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12263</v>
+        <v>12073</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29379</v>
+        <v>29374</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03090183019715211</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02001728315086205</v>
+        <v>0.01970776965136485</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04795703859483445</v>
+        <v>0.04794938333129299</v>
       </c>
     </row>
     <row r="5">
@@ -3449,19 +3449,19 @@
         <v>415354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406099</v>
+        <v>407089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>421690</v>
+        <v>421894</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9665471045523412</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9450093746007014</v>
+        <v>0.9473145535252652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9812906555522605</v>
+        <v>0.9817664356067159</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -3470,19 +3470,19 @@
         <v>178318</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>171869</v>
+        <v>172153</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>181184</v>
+        <v>181094</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9750928863519803</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9398270627025642</v>
+        <v>0.941380420815751</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.990763033082984</v>
+        <v>0.9902740315746106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>581</v>
@@ -3491,19 +3491,19 @@
         <v>593672</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>583224</v>
+        <v>583229</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>600340</v>
+        <v>600530</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9690981698028479</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9520429614051655</v>
+        <v>0.9520506166687071</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.979982716849138</v>
+        <v>0.9802922303486352</v>
       </c>
     </row>
     <row r="6">
@@ -3595,19 +3595,19 @@
         <v>31947</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21177</v>
+        <v>21245</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44641</v>
+        <v>45415</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05581050083702872</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03699571508927872</v>
+        <v>0.03711429103305037</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07798647555336108</v>
+        <v>0.07933899948414956</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -3616,19 +3616,19 @@
         <v>7643</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3709</v>
+        <v>3704</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14416</v>
+        <v>15041</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02371601154547344</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0115095208074498</v>
+        <v>0.011494460823959</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0447327364695399</v>
+        <v>0.04667442407547943</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -3637,19 +3637,19 @@
         <v>39590</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27018</v>
+        <v>28439</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53563</v>
+        <v>54514</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04425016141375272</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03019878958544815</v>
+        <v>0.03178706127590229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05986803775243249</v>
+        <v>0.06093079372118083</v>
       </c>
     </row>
     <row r="8">
@@ -3666,19 +3666,19 @@
         <v>540476</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>527782</v>
+        <v>527008</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>551246</v>
+        <v>551178</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9441894991629712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.922013524446639</v>
+        <v>0.9206610005158504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9630042849107213</v>
+        <v>0.9628857089669497</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>299</v>
@@ -3687,19 +3687,19 @@
         <v>314620</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>307847</v>
+        <v>307222</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>318554</v>
+        <v>318559</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9762839884545266</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9552672635304603</v>
+        <v>0.9533255759245206</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9884904791925503</v>
+        <v>0.988505539176041</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>801</v>
@@ -3708,19 +3708,19 @@
         <v>855096</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>841123</v>
+        <v>840172</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>867668</v>
+        <v>866247</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9557498385862473</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9401319622475671</v>
+        <v>0.9390692062788191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9698012104145518</v>
+        <v>0.9682129387240976</v>
       </c>
     </row>
     <row r="9">
@@ -3812,19 +3812,19 @@
         <v>20507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12516</v>
+        <v>12506</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33142</v>
+        <v>33244</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04816183822068484</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02939545903370886</v>
+        <v>0.02937043626097969</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07783443536264525</v>
+        <v>0.07807500178539474</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3833,19 +3833,19 @@
         <v>5387</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2054</v>
+        <v>2072</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11546</v>
+        <v>13238</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02319981531079658</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008847033516042461</v>
+        <v>0.008922368056518876</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04972234782046678</v>
+        <v>0.05701256322435553</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -3854,19 +3854,19 @@
         <v>25894</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16679</v>
+        <v>16618</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38491</v>
+        <v>40113</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03935301860786085</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02534785806975845</v>
+        <v>0.02525467632555798</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05849652379636631</v>
+        <v>0.06096248420532639</v>
       </c>
     </row>
     <row r="11">
@@ -3883,19 +3883,19 @@
         <v>405290</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>392655</v>
+        <v>392553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>413281</v>
+        <v>413291</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9518381617793151</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9221655646373548</v>
+        <v>0.9219249982146053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9706045409662912</v>
+        <v>0.9706295637390203</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>215</v>
@@ -3904,19 +3904,19 @@
         <v>226813</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>220654</v>
+        <v>218962</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>230146</v>
+        <v>230128</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9768001846892034</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9502776521795332</v>
+        <v>0.9429874367756444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9911529664839575</v>
+        <v>0.9910776319434812</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>584</v>
@@ -3925,19 +3925,19 @@
         <v>632103</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>619506</v>
+        <v>617884</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641318</v>
+        <v>641379</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9606469813921391</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9415034762036338</v>
+        <v>0.9390375157946735</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.974652141930242</v>
+        <v>0.974745323674442</v>
       </c>
     </row>
     <row r="12">
@@ -4029,19 +4029,19 @@
         <v>38340</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27434</v>
+        <v>27015</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51306</v>
+        <v>52330</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06699519188322978</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04793712611844837</v>
+        <v>0.04720474713782554</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08965046070725695</v>
+        <v>0.09144105652248602</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -4050,19 +4050,19 @@
         <v>19716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12179</v>
+        <v>12162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30680</v>
+        <v>30899</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0482075386590716</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02978060665013939</v>
+        <v>0.0297377378268049</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07501625133810549</v>
+        <v>0.07555287297781998</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -4071,19 +4071,19 @@
         <v>58056</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43806</v>
+        <v>44216</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74798</v>
+        <v>74191</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0591648170461581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04464313011836869</v>
+        <v>0.04506006661763261</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07622619162419493</v>
+        <v>0.07560816024150439</v>
       </c>
     </row>
     <row r="14">
@@ -4100,19 +4100,19 @@
         <v>533946</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>520980</v>
+        <v>519956</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>544852</v>
+        <v>545271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9330048081167702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.910349539292743</v>
+        <v>0.9085589434775136</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9520628738815509</v>
+        <v>0.9527952528621741</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -4121,19 +4121,19 @@
         <v>389256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>378292</v>
+        <v>378073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>396793</v>
+        <v>396810</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9517924613409284</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9249837486618946</v>
+        <v>0.92444712702218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9702193933498606</v>
+        <v>0.9702622621731951</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>891</v>
@@ -4142,19 +4142,19 @@
         <v>923202</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>906460</v>
+        <v>907067</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>937452</v>
+        <v>937042</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9408351829538419</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.923773808375805</v>
+        <v>0.9243918397584956</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9553568698816313</v>
+        <v>0.9549399333823674</v>
       </c>
     </row>
     <row r="15">
@@ -4246,19 +4246,19 @@
         <v>105170</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85900</v>
+        <v>85508</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128430</v>
+        <v>127807</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05257904566661846</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04294504020214137</v>
+        <v>0.042748991621025</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06420759252150615</v>
+        <v>0.06389590971081222</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -4267,19 +4267,19 @@
         <v>37300</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27409</v>
+        <v>25898</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52163</v>
+        <v>51414</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03253938658472359</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02391038757732943</v>
+        <v>0.02259258061296654</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04550556290638092</v>
+        <v>0.04485178710969769</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>130</v>
@@ -4288,19 +4288,19 @@
         <v>142471</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>120886</v>
+        <v>120588</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>169527</v>
+        <v>167944</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04527846141214422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03841858694651847</v>
+        <v>0.03832384104168201</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05387727321360513</v>
+        <v>0.0533740069602535</v>
       </c>
     </row>
     <row r="17">
@@ -4317,19 +4317,19 @@
         <v>1895066</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1871806</v>
+        <v>1872429</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1914336</v>
+        <v>1914728</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9474209543333816</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9357924074784939</v>
+        <v>0.9361040902891878</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9570549597978587</v>
+        <v>0.957251008378975</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1059</v>
@@ -4338,19 +4338,19 @@
         <v>1109007</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1094144</v>
+        <v>1094893</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1118898</v>
+        <v>1120409</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9674606134152764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.954494437093619</v>
+        <v>0.9551482128903016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9760896124226704</v>
+        <v>0.9774074193870322</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2857</v>
@@ -4359,19 +4359,19 @@
         <v>3004072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2977016</v>
+        <v>2978599</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3025657</v>
+        <v>3025955</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9547215385878558</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9461227267863946</v>
+        <v>0.9466259930397465</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9615814130534814</v>
+        <v>0.9616761589583179</v>
       </c>
     </row>
     <row r="18">
@@ -4703,19 +4703,19 @@
         <v>7718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4191</v>
+        <v>3816</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14103</v>
+        <v>13769</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02180549610164758</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01184052110499334</v>
+        <v>0.01078234866347251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03984559275855923</v>
+        <v>0.03890295068200694</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4724,19 +4724,19 @@
         <v>2630</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6460</v>
+        <v>6537</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01519616170127966</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004075257565750103</v>
+        <v>0.004128836199747318</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03732406769555772</v>
+        <v>0.03777006214802685</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -4745,19 +4745,19 @@
         <v>10348</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5729</v>
+        <v>5788</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16553</v>
+        <v>18009</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01963488667174256</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01087109786729576</v>
+        <v>0.01098206942560859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03140858882208915</v>
+        <v>0.03417221376323388</v>
       </c>
     </row>
     <row r="5">
@@ -4774,19 +4774,19 @@
         <v>346221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>339836</v>
+        <v>340170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>349748</v>
+        <v>350123</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9781945038983526</v>
+        <v>0.9781945038983524</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9601544072414407</v>
+        <v>0.9610970493179927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9881594788950069</v>
+        <v>0.9892176513365273</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>246</v>
@@ -4795,19 +4795,19 @@
         <v>170452</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166622</v>
+        <v>166545</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>172377</v>
+        <v>172367</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9848038382987204</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9626759323044423</v>
+        <v>0.9622299378519731</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.99592474243425</v>
+        <v>0.9958711638002525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>593</v>
@@ -4816,19 +4816,19 @@
         <v>516672</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>510467</v>
+        <v>509011</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>521291</v>
+        <v>521232</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9803651133282573</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9685914111779108</v>
+        <v>0.9658277862367665</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9891289021327042</v>
+        <v>0.9890179305743916</v>
       </c>
     </row>
     <row r="6">
@@ -4920,19 +4920,19 @@
         <v>29296</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19251</v>
+        <v>18728</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44304</v>
+        <v>43288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05850690917742012</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03844620618057128</v>
+        <v>0.03740260828122102</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08848042212836811</v>
+        <v>0.08645132410442584</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4941,19 +4941,19 @@
         <v>11512</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6108</v>
+        <v>6236</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19556</v>
+        <v>20441</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05158189799550802</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02736607983084669</v>
+        <v>0.02794194748245765</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08762536788102733</v>
+        <v>0.09158968428778543</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -4962,19 +4962,19 @@
         <v>40808</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28724</v>
+        <v>28934</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57725</v>
+        <v>57716</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05637190270758975</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03967872992492161</v>
+        <v>0.03996986294923415</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07974035961115664</v>
+        <v>0.07972823265118997</v>
       </c>
     </row>
     <row r="8">
@@ -4991,19 +4991,19 @@
         <v>471427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>456419</v>
+        <v>457435</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>481472</v>
+        <v>481995</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9414930908225799</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.911519577871632</v>
+        <v>0.9135486758955741</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9615537938194284</v>
+        <v>0.962597391718779</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>275</v>
@@ -5012,19 +5012,19 @@
         <v>211671</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>203627</v>
+        <v>202742</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>217075</v>
+        <v>216947</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9484181020044918</v>
+        <v>0.9484181020044919</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9123746321189725</v>
+        <v>0.9084103157122148</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9726339201691533</v>
+        <v>0.9720580525175425</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>692</v>
@@ -5033,19 +5033,19 @@
         <v>683098</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>666181</v>
+        <v>666190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>695182</v>
+        <v>694972</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9436280972924103</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9202596403888429</v>
+        <v>0.92027176734881</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9603212700750783</v>
+        <v>0.9600301370507658</v>
       </c>
     </row>
     <row r="9">
@@ -5137,19 +5137,19 @@
         <v>27650</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17592</v>
+        <v>17761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40863</v>
+        <v>42453</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07676709590032348</v>
+        <v>0.07676709590032346</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04884199936366846</v>
+        <v>0.04930969456855882</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1134520396532494</v>
+        <v>0.1178655779254817</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -5158,19 +5158,19 @@
         <v>11232</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5097</v>
+        <v>5556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21542</v>
+        <v>21035</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05584261349630808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0253399811794005</v>
+        <v>0.02762364288527727</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.107103118272875</v>
+        <v>0.1045840390398509</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -5179,19 +5179,19 @@
         <v>38882</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27291</v>
+        <v>26511</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55496</v>
+        <v>55422</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06926932987395205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04861975183416833</v>
+        <v>0.0472300866458505</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09886746752789702</v>
+        <v>0.09873599725687419</v>
       </c>
     </row>
     <row r="11">
@@ -5208,19 +5208,19 @@
         <v>332533</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>319320</v>
+        <v>317730</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>342591</v>
+        <v>342422</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9232329040996766</v>
+        <v>0.9232329040996765</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8865479603467502</v>
+        <v>0.8821344220745179</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9511580006363317</v>
+        <v>0.9506903054314408</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>238</v>
@@ -5229,19 +5229,19 @@
         <v>189902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>179592</v>
+        <v>180099</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>196037</v>
+        <v>195578</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.944157386503692</v>
+        <v>0.9441573865036921</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8928968817271252</v>
+        <v>0.8954159609601492</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9746600188205995</v>
+        <v>0.9723763571147229</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>519</v>
@@ -5250,19 +5250,19 @@
         <v>522435</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>505821</v>
+        <v>505895</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>534026</v>
+        <v>534806</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9307306701260479</v>
+        <v>0.930730670126048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9011325324721029</v>
+        <v>0.9012640027431263</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9513802481658316</v>
+        <v>0.9527699133541495</v>
       </c>
     </row>
     <row r="12">
@@ -5354,19 +5354,19 @@
         <v>44522</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31587</v>
+        <v>32479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60773</v>
+        <v>60521</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09560916776448673</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06783173746113511</v>
+        <v>0.06974699754885537</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1305076919578153</v>
+        <v>0.1299681473023806</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -5375,19 +5375,19 @@
         <v>5873</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2331</v>
+        <v>2399</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14337</v>
+        <v>16068</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01902914602793891</v>
+        <v>0.0190291460279389</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00755288039584526</v>
+        <v>0.007771569158589317</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04645441964631394</v>
+        <v>0.05206179626806089</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -5396,19 +5396,19 @@
         <v>50395</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37100</v>
+        <v>36381</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68765</v>
+        <v>68307</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06508472983353047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04791494646023715</v>
+        <v>0.04698585903050923</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08881023048192815</v>
+        <v>0.08821896553456175</v>
       </c>
     </row>
     <row r="14">
@@ -5425,19 +5425,19 @@
         <v>421142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>404891</v>
+        <v>405143</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>434077</v>
+        <v>433185</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9043908322355133</v>
+        <v>0.9043908322355132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.869492308042185</v>
+        <v>0.87003185269762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9321682625388649</v>
+        <v>0.9302530024511446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>411</v>
@@ -5446,19 +5446,19 @@
         <v>302757</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294293</v>
+        <v>292562</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>306299</v>
+        <v>306231</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9809708539720612</v>
+        <v>0.980970853972061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9535455803536861</v>
+        <v>0.947938203731939</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9924471196041548</v>
+        <v>0.9922284308414108</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>853</v>
@@ -5467,19 +5467,19 @@
         <v>723899</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>705529</v>
+        <v>705987</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>737194</v>
+        <v>737913</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9349152701664696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.911189769518072</v>
+        <v>0.9117810344654387</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.952085053539763</v>
+        <v>0.9530141409694908</v>
       </c>
     </row>
     <row r="15">
@@ -5571,19 +5571,19 @@
         <v>109186</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87897</v>
+        <v>89381</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>133395</v>
+        <v>133237</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06497170862264531</v>
+        <v>0.0649717086226453</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05230373750540503</v>
+        <v>0.05318676369170892</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07937799644732528</v>
+        <v>0.07928383363642615</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -5592,19 +5592,19 @@
         <v>31247</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22011</v>
+        <v>21104</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47850</v>
+        <v>45190</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03448807986340396</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02429401313399493</v>
+        <v>0.02329307808691432</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05281269096231031</v>
+        <v>0.04987742228309101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>134</v>
@@ -5613,19 +5613,19 @@
         <v>140433</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>118261</v>
+        <v>114188</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>169370</v>
+        <v>167633</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05429371167008844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04572191984323507</v>
+        <v>0.04414695530833349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0654815182361468</v>
+        <v>0.06480990288459665</v>
       </c>
     </row>
     <row r="17">
@@ -5642,19 +5642,19 @@
         <v>1571323</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1547114</v>
+        <v>1547272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1592612</v>
+        <v>1591128</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9350282913773548</v>
+        <v>0.9350282913773549</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9206220035526748</v>
+        <v>0.920716166363574</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.947696262494595</v>
+        <v>0.9468132363082913</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1170</v>
@@ -5663,19 +5663,19 @@
         <v>874782</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>858179</v>
+        <v>860839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>884018</v>
+        <v>884925</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9655119201365961</v>
+        <v>0.965511920136596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9471873090376898</v>
+        <v>0.9501225777169096</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9757059868660051</v>
+        <v>0.9767069219130858</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2657</v>
@@ -5684,19 +5684,19 @@
         <v>2446105</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2417168</v>
+        <v>2418905</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2468277</v>
+        <v>2472350</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9457062883299117</v>
+        <v>0.9457062883299114</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9345184817638533</v>
+        <v>0.9351900971154031</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9542780801567652</v>
+        <v>0.9558530446916664</v>
       </c>
     </row>
     <row r="18">
